--- a/public/downloads/doc/userTemp.xlsx
+++ b/public/downloads/doc/userTemp.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\backend\v-school\public\downloads\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
@@ -25,90 +29,13 @@
   <si>
     <t>Herman Boehm</t>
   </si>
-  <si>
-    <t>tester1</t>
-  </si>
-  <si>
-    <t>tester2</t>
-  </si>
-  <si>
-    <t>tester3</t>
-  </si>
-  <si>
-    <t>tester4</t>
-  </si>
-  <si>
-    <t>Milo Marks</t>
-  </si>
-  <si>
-    <t>Dr. Brannon Weissnat IV</t>
-  </si>
-  <si>
-    <t>Kacey Reichel</t>
-  </si>
-  <si>
-    <t>Velda Torp DVM</t>
-  </si>
-  <si>
-    <t>Joelle Bruen</t>
-  </si>
-  <si>
-    <t>Alexandre Cole</t>
-  </si>
-  <si>
-    <t>Velda Heller</t>
-  </si>
-  <si>
-    <t>Evelyn Johns Sr.</t>
-  </si>
-  <si>
-    <t>Beth Hermann</t>
-  </si>
-  <si>
-    <t>Jaylen Johnston II</t>
-  </si>
-  <si>
-    <t>Prof. Alexie Lind</t>
-  </si>
-  <si>
-    <t>Magdalena Bechtelar</t>
-  </si>
-  <si>
-    <t>Dr. Rebecca Klein</t>
-  </si>
-  <si>
-    <t>Prof. Aryanna Padberg Jr.</t>
-  </si>
-  <si>
-    <t>Mr. Mac Yundt DDS</t>
-  </si>
-  <si>
-    <t>Ryleigh Steuber</t>
-  </si>
-  <si>
-    <t>Ms. Naomie Kshlerin DDS</t>
-  </si>
-  <si>
-    <t>Carolyne Johnson</t>
-  </si>
-  <si>
-    <t>Miss Carrie Nolan</t>
-  </si>
-  <si>
-    <t>Mrs. Valentine Kilback III</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -119,28 +46,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,23 +366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.706543" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -462,210 +395,8 @@
         <v>23812314</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>123123123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>234234234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>345345345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>456456456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>65761180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>74438898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>88923843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>40680705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>59586450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>48916297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>98037786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>69688906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>8284425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>95442450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>56643832</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>45838404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>97678000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>17515128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>6216910</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>40495453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>14478325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>67898100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>25486691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>52858877</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>